--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:42+00:00</t>
+    <t>2023-02-06T10:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:53+00:00</t>
+    <t>2023-02-06T10:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:21:17+00:00</t>
+    <t>2023-02-06T11:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:48:19+00:00</t>
+    <t>2023-02-06T11:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
